--- a/Code/Results/Cases/Case_4_103/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_103/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.266775690813915</v>
+        <v>6.100864761350067</v>
       </c>
       <c r="C2">
-        <v>3.144266531485243</v>
+        <v>1.971249225817189</v>
       </c>
       <c r="D2">
-        <v>0.563132363429105</v>
+        <v>0.6998179082119407</v>
       </c>
       <c r="E2">
-        <v>0.2520538136378718</v>
+        <v>0.2844193726699658</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.00078696805598001</v>
+        <v>0.002691969173309583</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1498046129717636</v>
+        <v>0.147174348626514</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>4.096119105684039</v>
+        <v>3.949588442360181</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.985086918968136</v>
+        <v>5.866813803499497</v>
       </c>
       <c r="C3">
-        <v>2.701031764317861</v>
+        <v>1.89074214446714</v>
       </c>
       <c r="D3">
-        <v>0.5016087734710197</v>
+        <v>0.6927438679833813</v>
       </c>
       <c r="E3">
-        <v>0.2228981711994464</v>
+        <v>0.2807244758264034</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008078629910192375</v>
+        <v>0.002702811064109104</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1312579337777819</v>
+        <v>0.1445661577799342</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3.820557792220711</v>
+        <v>3.866634005347549</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.23825411223379</v>
+        <v>5.727770283480652</v>
       </c>
       <c r="C4">
-        <v>2.443263006371581</v>
+        <v>1.842860936349553</v>
       </c>
       <c r="D4">
-        <v>0.4661980500961818</v>
+        <v>0.6888396703855904</v>
       </c>
       <c r="E4">
-        <v>0.2060954822295855</v>
+        <v>0.2786431498179809</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008207104957176868</v>
+        <v>0.002709792206916302</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1205535386048737</v>
+        <v>0.1430681449162847</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3.659440703341261</v>
+        <v>3.816141788802298</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.942209774662956</v>
+        <v>5.672261971899104</v>
       </c>
       <c r="C5">
-        <v>2.341182842277817</v>
+        <v>1.823731509942206</v>
       </c>
       <c r="D5">
-        <v>0.4522650247239426</v>
+        <v>0.6873581605358936</v>
       </c>
       <c r="E5">
-        <v>0.1994783062684462</v>
+        <v>0.2778416245307653</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.000825966989647902</v>
+        <v>0.002712719017721501</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1163337062614147</v>
+        <v>0.1424833827619878</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.59547108499126</v>
+        <v>3.795671840631087</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.893506777162258</v>
+        <v>5.663113927774248</v>
       </c>
       <c r="C6">
-        <v>2.324394695353988</v>
+        <v>1.820577978083577</v>
       </c>
       <c r="D6">
-        <v>0.4499789781950483</v>
+        <v>0.6871187413045448</v>
       </c>
       <c r="E6">
-        <v>0.1983922366743229</v>
+        <v>0.2777113345509719</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008268415217096563</v>
+        <v>0.002713209973696837</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1156408435847922</v>
+        <v>0.1423878259690383</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3.584941965410081</v>
+        <v>3.792279077129479</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.234230089584969</v>
+        <v>5.72701703625944</v>
       </c>
       <c r="C7">
-        <v>2.441875093906958</v>
+        <v>1.842601410802445</v>
       </c>
       <c r="D7">
-        <v>0.4660082469732743</v>
+        <v>0.6888192482079489</v>
       </c>
       <c r="E7">
-        <v>0.2060053639212072</v>
+        <v>0.2786321519799202</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008207812819225623</v>
+        <v>0.002709831346625884</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1204960872175391</v>
+        <v>0.143060155002587</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3.658571566200408</v>
+        <v>3.815865301308406</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.815322401183835</v>
+        <v>6.019183598494237</v>
       </c>
       <c r="C8">
-        <v>2.988018187540661</v>
+        <v>1.9431640945769</v>
       </c>
       <c r="D8">
-        <v>0.5413629624902399</v>
+        <v>0.6972870009137182</v>
       </c>
       <c r="E8">
-        <v>0.2417418988325863</v>
+        <v>0.2831061916559747</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007941799273517151</v>
+        <v>0.002695640428933691</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1432481317103154</v>
+        <v>0.1462533834890962</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3.99919964640398</v>
+        <v>3.920890844753018</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.34033677222988</v>
+        <v>6.630089918603744</v>
       </c>
       <c r="C9">
-        <v>4.211849291383658</v>
+        <v>2.153019500780772</v>
       </c>
       <c r="D9">
-        <v>0.7136834583073437</v>
+        <v>0.7174250967493663</v>
       </c>
       <c r="E9">
-        <v>0.3232891330962744</v>
+        <v>0.2933894122547542</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.000741182511122262</v>
+        <v>0.002670364924978603</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1950427332559954</v>
+        <v>0.1533511226293029</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>4.751447530066059</v>
+        <v>4.130598401389221</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.40023487474684</v>
+        <v>7.103478902717484</v>
       </c>
       <c r="C10">
-        <v>5.281757578460315</v>
+        <v>2.315427690123556</v>
       </c>
       <c r="D10">
-        <v>0.8668192713100211</v>
+        <v>0.7344442743708726</v>
       </c>
       <c r="E10">
-        <v>0.3956959172766545</v>
+        <v>0.3018988481844644</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0006998000323926065</v>
+        <v>0.002653323938024032</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2409957469291726</v>
+        <v>0.1590977043080812</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>5.39525074045315</v>
+        <v>4.287315866659924</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.97351856027819</v>
+        <v>7.324488363274099</v>
       </c>
       <c r="C11">
-        <v>5.834835489516763</v>
+        <v>2.391214666883229</v>
       </c>
       <c r="D11">
-        <v>0.9466014210689195</v>
+        <v>0.7426856237164827</v>
       </c>
       <c r="E11">
-        <v>0.4334254148150407</v>
+        <v>0.305985014213114</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0006797172540581305</v>
+        <v>0.002645897585273005</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2649498944020365</v>
+        <v>0.1618325515300114</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>5.722631389177309</v>
+        <v>4.359265155112496</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.60649442945407</v>
+        <v>7.409019366831672</v>
       </c>
       <c r="C12">
-        <v>6.057956431741331</v>
+        <v>2.420196985552366</v>
       </c>
       <c r="D12">
-        <v>0.9788832028314118</v>
+        <v>0.7458795231767681</v>
       </c>
       <c r="E12">
-        <v>0.4486954209612009</v>
+        <v>0.3075639241097434</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0006718294095853247</v>
+        <v>0.002643131777951162</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2746484239013398</v>
+        <v>0.1628859434558194</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>5.853615203003301</v>
+        <v>4.386611467176579</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.46827220791556</v>
+        <v>7.390776353333536</v>
       </c>
       <c r="C13">
-        <v>6.00920358922167</v>
+        <v>2.413942367992718</v>
       </c>
       <c r="D13">
-        <v>0.9718251391455226</v>
+        <v>0.7451883885012194</v>
       </c>
       <c r="E13">
-        <v>0.4453565729837834</v>
+        <v>0.3072224634425993</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0006735430268820126</v>
+        <v>0.002643725387635756</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2725275854581639</v>
+        <v>0.1626582799103176</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>5.82504880057536</v>
+        <v>4.380717373164316</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.02476258013746</v>
+        <v>7.331425806803736</v>
       </c>
       <c r="C14">
-        <v>5.852885670852061</v>
+        <v>2.393593325043753</v>
       </c>
       <c r="D14">
-        <v>0.9492110418632933</v>
+        <v>0.7429469155655966</v>
       </c>
       <c r="E14">
-        <v>0.4346597294981365</v>
+        <v>0.3061142757577286</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0006790747719022725</v>
+        <v>0.002645669113170815</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2657337609416999</v>
+        <v>0.1619188562950598</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>5.733251289538259</v>
+        <v>4.36151289946946</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.75837743802765</v>
+        <v>7.29518197804623</v>
       </c>
       <c r="C15">
-        <v>5.75907915790458</v>
+        <v>2.381166140513301</v>
       </c>
       <c r="D15">
-        <v>0.9356527127949619</v>
+        <v>0.7415835048661847</v>
       </c>
       <c r="E15">
-        <v>0.4282469937601121</v>
+        <v>0.3054396087647007</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0006824223181788647</v>
+        <v>0.002646865729486424</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2616614387943912</v>
+        <v>0.1614682638334557</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>5.678014990846123</v>
+        <v>4.349762899625489</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.30189372807695</v>
+        <v>7.089151497454054</v>
       </c>
       <c r="C16">
-        <v>5.247255498196864</v>
+        <v>2.310513984355453</v>
       </c>
       <c r="D16">
-        <v>0.861854633914021</v>
+        <v>0.7339158378822503</v>
       </c>
       <c r="E16">
-        <v>0.3933484269709737</v>
+        <v>0.3016361904935962</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007010795926622106</v>
+        <v>0.00265381578339587</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2395056871904728</v>
+        <v>0.1589214389446028</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>5.374702847296533</v>
+        <v>4.282627564391589</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.46115331820454</v>
+        <v>6.964226461472663</v>
       </c>
       <c r="C17">
-        <v>4.952612656712063</v>
+        <v>2.26766600856331</v>
       </c>
       <c r="D17">
-        <v>0.8195225189195128</v>
+        <v>0.7293407417625417</v>
       </c>
       <c r="E17">
-        <v>0.3733328719872944</v>
+        <v>0.2993584668247991</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007121451491544842</v>
+        <v>0.002658162518469226</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2268020116029987</v>
+        <v>0.1573902440723316</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>5.198638296659453</v>
+        <v>4.241614961437364</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.99376013284632</v>
+        <v>6.892904297272707</v>
       </c>
       <c r="C18">
-        <v>4.789058297090605</v>
+        <v>2.243199879084273</v>
       </c>
       <c r="D18">
-        <v>0.7960776267161691</v>
+        <v>0.7267561782745702</v>
       </c>
       <c r="E18">
-        <v>0.3622479576538993</v>
+        <v>0.2980685955132856</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.00071839953204784</v>
+        <v>0.00266069332635093</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2197671406567281</v>
+        <v>0.1565208766863293</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>5.100456013738039</v>
+        <v>4.218087131693181</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.83803153733277</v>
+        <v>6.868846352777382</v>
       </c>
       <c r="C19">
-        <v>4.734602906926398</v>
+        <v>2.234946516096556</v>
       </c>
       <c r="D19">
-        <v>0.7882806482229228</v>
+        <v>0.7258891079746945</v>
       </c>
       <c r="E19">
-        <v>0.3585614898022769</v>
+        <v>0.2976353205523665</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007205005712774279</v>
+        <v>0.002661555497407255</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2174276350389874</v>
+        <v>0.156228458488215</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>5.067695759519211</v>
+        <v>4.21013139812834</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.54891367742357</v>
+        <v>6.977469765405772</v>
       </c>
       <c r="C20">
-        <v>4.983342030730341</v>
+        <v>2.272208667943346</v>
       </c>
       <c r="D20">
-        <v>0.8239318450221162</v>
+        <v>0.7298229042852711</v>
       </c>
       <c r="E20">
-        <v>0.3754176469457988</v>
+        <v>0.2995988377604348</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007109791918410083</v>
+        <v>0.002657696629005762</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2281251203165908</v>
+        <v>0.1575520662979102</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>5.21704961007913</v>
+        <v>4.245974410738853</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.15390316278717</v>
+        <v>7.348835511029506</v>
       </c>
       <c r="C21">
-        <v>5.898384294839275</v>
+        <v>2.399562564524444</v>
       </c>
       <c r="D21">
-        <v>0.9557905801019047</v>
+        <v>0.743603296629999</v>
       </c>
       <c r="E21">
-        <v>0.4377718311681278</v>
+        <v>0.3064389155168428</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0006774587361478849</v>
+        <v>0.002645096938412635</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.267710207665246</v>
+        <v>0.1621355574804824</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>5.760002305237094</v>
+        <v>4.367150937174586</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.08389264382561</v>
+        <v>7.596450200032677</v>
       </c>
       <c r="C22">
-        <v>6.5801336179602</v>
+        <v>2.484452301861097</v>
       </c>
       <c r="D22">
-        <v>1.054621387675525</v>
+        <v>0.7530361759088464</v>
       </c>
       <c r="E22">
-        <v>0.4845330337102283</v>
+        <v>0.311093608081876</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0006538046414816009</v>
+        <v>0.002637132509443156</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2974212071714391</v>
+        <v>0.1652348799987493</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>6.157658122538464</v>
+        <v>4.446936571616618</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.02746785535203</v>
+        <v>7.463836130534105</v>
       </c>
       <c r="C23">
-        <v>6.206544558024348</v>
+        <v>2.438990329929652</v>
       </c>
       <c r="D23">
-        <v>1.000409112150692</v>
+        <v>0.7479621981686364</v>
       </c>
       <c r="E23">
-        <v>0.4588791958316492</v>
+        <v>0.308592234474574</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0006666399218588115</v>
+        <v>0.002641358698740155</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2811179659803571</v>
+        <v>0.1635710816721314</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>5.94049153284891</v>
+        <v>4.404297457991902</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.50918825263363</v>
+        <v>6.971480915626216</v>
       </c>
       <c r="C24">
-        <v>4.969431367547486</v>
+        <v>2.270154409854058</v>
       </c>
       <c r="D24">
-        <v>0.8219356501154778</v>
+        <v>0.7296047762975491</v>
       </c>
       <c r="E24">
-        <v>0.3744738244397112</v>
+        <v>0.2994901049880667</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007115066489555844</v>
+        <v>0.002657907158504068</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2275261187211441</v>
+        <v>0.1574788724343676</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>5.208716525015859</v>
+        <v>4.244003345745085</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.32366101659932</v>
+        <v>6.460615802797065</v>
       </c>
       <c r="C25">
-        <v>3.857957079840901</v>
+        <v>2.094841366924925</v>
       </c>
       <c r="D25">
-        <v>0.6634755964639965</v>
+        <v>0.7115919104017792</v>
       </c>
       <c r="E25">
-        <v>0.2995432808574634</v>
+        <v>0.2904424652754827</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007557705430140221</v>
+        <v>0.002676932132875486</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.179969934273096</v>
+        <v>0.1513392525463289</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>4.535586578725713</v>
+        <v>4.073428694324036</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_103/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_103/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.100864761350067</v>
+        <v>9.266775690813915</v>
       </c>
       <c r="C2">
-        <v>1.971249225817189</v>
+        <v>3.144266531484789</v>
       </c>
       <c r="D2">
-        <v>0.6998179082119407</v>
+        <v>0.5631323634298155</v>
       </c>
       <c r="E2">
-        <v>0.2844193726699658</v>
+        <v>0.2520538136377368</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002691969173309583</v>
+        <v>0.000786968055754821</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.147174348626514</v>
+        <v>0.1498046129718631</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.949588442360181</v>
+        <v>4.096119105684096</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.866813803499497</v>
+        <v>7.985086918968193</v>
       </c>
       <c r="C3">
-        <v>1.89074214446714</v>
+        <v>2.701031764318543</v>
       </c>
       <c r="D3">
-        <v>0.6927438679833813</v>
+        <v>0.5016087734710482</v>
       </c>
       <c r="E3">
-        <v>0.2807244758264034</v>
+        <v>0.2228981711993967</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002702811064109104</v>
+        <v>0.0008078629909087651</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1445661577799342</v>
+        <v>0.1312579337776043</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3.866634005347549</v>
+        <v>3.820557792220654</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.727770283480652</v>
+        <v>7.238254112233733</v>
       </c>
       <c r="C4">
-        <v>1.842860936349553</v>
+        <v>2.443263006372035</v>
       </c>
       <c r="D4">
-        <v>0.6888396703855904</v>
+        <v>0.466198050096267</v>
       </c>
       <c r="E4">
-        <v>0.2786431498179809</v>
+        <v>0.2060954822295926</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002709792206916302</v>
+        <v>0.0008207104956237475</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1430681449162847</v>
+        <v>0.1205535386047671</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3.816141788802298</v>
+        <v>3.659440703341232</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.672261971899104</v>
+        <v>6.942209774663127</v>
       </c>
       <c r="C5">
-        <v>1.823731509942206</v>
+        <v>2.341182842277874</v>
       </c>
       <c r="D5">
-        <v>0.6873581605358936</v>
+        <v>0.4522650247238005</v>
       </c>
       <c r="E5">
-        <v>0.2778416245307653</v>
+        <v>0.1994783062683823</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002712719017721501</v>
+        <v>0.0008259669896367946</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1424833827619878</v>
+        <v>0.1163337062614787</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.795671840631087</v>
+        <v>3.595471084991289</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.663113927774248</v>
+        <v>6.893506777162145</v>
       </c>
       <c r="C6">
-        <v>1.820577978083577</v>
+        <v>2.324394695354101</v>
       </c>
       <c r="D6">
-        <v>0.6871187413045448</v>
+        <v>0.4499789781952757</v>
       </c>
       <c r="E6">
-        <v>0.2777113345509719</v>
+        <v>0.1983922366743442</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002713209973696837</v>
+        <v>0.0008268415216987029</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1423878259690383</v>
+        <v>0.1156408435847638</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3.792279077129479</v>
+        <v>3.584941965410053</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.72701703625944</v>
+        <v>7.234230089584912</v>
       </c>
       <c r="C7">
-        <v>1.842601410802445</v>
+        <v>2.441875093906958</v>
       </c>
       <c r="D7">
-        <v>0.6888192482079489</v>
+        <v>0.4660082469732458</v>
       </c>
       <c r="E7">
-        <v>0.2786321519799202</v>
+        <v>0.2060053639212924</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002709831346625884</v>
+        <v>0.0008207812819140677</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.143060155002587</v>
+        <v>0.1204960872177736</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3.815865301308406</v>
+        <v>3.658571566200351</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.019183598494237</v>
+        <v>8.815322401183835</v>
       </c>
       <c r="C8">
-        <v>1.9431640945769</v>
+        <v>2.988018187540661</v>
       </c>
       <c r="D8">
-        <v>0.6972870009137182</v>
+        <v>0.5413629624900977</v>
       </c>
       <c r="E8">
-        <v>0.2831061916559747</v>
+        <v>0.2417418988327142</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002695640428933691</v>
+        <v>0.0007941799273639503</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1462533834890962</v>
+        <v>0.1432481317104575</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3.920890844753018</v>
+        <v>3.999199646404008</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.630089918603744</v>
+        <v>12.34033677222999</v>
       </c>
       <c r="C9">
-        <v>2.153019500780772</v>
+        <v>4.211849291384226</v>
       </c>
       <c r="D9">
-        <v>0.7174250967493663</v>
+        <v>0.7136834583065763</v>
       </c>
       <c r="E9">
-        <v>0.2933894122547542</v>
+        <v>0.3232891330962033</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002670364924978603</v>
+        <v>0.0007411825111299236</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1533511226293029</v>
+        <v>0.1950427332560878</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>4.130598401389221</v>
+        <v>4.751447530066002</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.103478902717484</v>
+        <v>15.40023487474639</v>
       </c>
       <c r="C10">
-        <v>2.315427690123556</v>
+        <v>5.281757578461793</v>
       </c>
       <c r="D10">
-        <v>0.7344442743708726</v>
+        <v>0.8668192713101064</v>
       </c>
       <c r="E10">
-        <v>0.3018988481844644</v>
+        <v>0.395695917276754</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002653323938024032</v>
+        <v>0.0006998000324062287</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1590977043080812</v>
+        <v>0.2409957469295847</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4.287315866659924</v>
+        <v>5.39525074045315</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.324488363274099</v>
+        <v>16.97351856027876</v>
       </c>
       <c r="C11">
-        <v>2.391214666883229</v>
+        <v>5.834835489517104</v>
       </c>
       <c r="D11">
-        <v>0.7426856237164827</v>
+        <v>0.946601421068749</v>
       </c>
       <c r="E11">
-        <v>0.305985014213114</v>
+        <v>0.4334254148150336</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002645897585273005</v>
+        <v>0.0006797172541423088</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1618325515300114</v>
+        <v>0.2649498944017807</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4.359265155112496</v>
+        <v>5.722631389177309</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.409019366831672</v>
+        <v>17.60649442945339</v>
       </c>
       <c r="C12">
-        <v>2.420196985552366</v>
+        <v>6.057956431741104</v>
       </c>
       <c r="D12">
-        <v>0.7458795231767681</v>
+        <v>0.9788832028312413</v>
       </c>
       <c r="E12">
-        <v>0.3075639241097434</v>
+        <v>0.4486954209612364</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002643131777951162</v>
+        <v>0.0006718294092596351</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1628859434558194</v>
+        <v>0.2746484239016951</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4.386611467176579</v>
+        <v>5.853615203003187</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.390776353333536</v>
+        <v>17.46827220791533</v>
       </c>
       <c r="C13">
-        <v>2.413942367992718</v>
+        <v>6.009203589222693</v>
       </c>
       <c r="D13">
-        <v>0.7451883885012194</v>
+        <v>0.9718251391447268</v>
       </c>
       <c r="E13">
-        <v>0.3072224634425993</v>
+        <v>0.4453565729837976</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002643725387635756</v>
+        <v>0.000673543026926942</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1626582799103176</v>
+        <v>0.2725275854579792</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4.380717373164316</v>
+        <v>5.825048800575303</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.331425806803736</v>
+        <v>17.02476258013769</v>
       </c>
       <c r="C14">
-        <v>2.393593325043753</v>
+        <v>5.852885670852174</v>
       </c>
       <c r="D14">
-        <v>0.7429469155655966</v>
+        <v>0.9492110418630091</v>
       </c>
       <c r="E14">
-        <v>0.3061142757577286</v>
+        <v>0.4346597294982146</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002645669113170815</v>
+        <v>0.0006790747721740425</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1619188562950598</v>
+        <v>0.2657337609420267</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4.36151289946946</v>
+        <v>5.733251289538146</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.29518197804623</v>
+        <v>16.75837743802788</v>
       </c>
       <c r="C15">
-        <v>2.381166140513301</v>
+        <v>5.759079157905262</v>
       </c>
       <c r="D15">
-        <v>0.7415835048661847</v>
+        <v>0.9356527127949619</v>
       </c>
       <c r="E15">
-        <v>0.3054396087647007</v>
+        <v>0.4282469937600339</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002646865729486424</v>
+        <v>0.0006824223180489686</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1614682638334557</v>
+        <v>0.2616614387948317</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4.349762899625489</v>
+        <v>5.678014990846009</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.089151497454054</v>
+        <v>15.30189372807649</v>
       </c>
       <c r="C16">
-        <v>2.310513984355453</v>
+        <v>5.247255498197319</v>
       </c>
       <c r="D16">
-        <v>0.7339158378822503</v>
+        <v>0.8618546339139073</v>
       </c>
       <c r="E16">
-        <v>0.3016361904935962</v>
+        <v>0.3933484269709666</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.00265381578339587</v>
+        <v>0.0007010795926491883</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1589214389446028</v>
+        <v>0.2395056871908992</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4.282627564391589</v>
+        <v>5.374702847296533</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.964226461472663</v>
+        <v>14.46115331820442</v>
       </c>
       <c r="C17">
-        <v>2.26766600856331</v>
+        <v>4.952612656711608</v>
       </c>
       <c r="D17">
-        <v>0.7293407417625417</v>
+        <v>0.8195225189195412</v>
       </c>
       <c r="E17">
-        <v>0.2993584668247991</v>
+        <v>0.3733328719871949</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002658162518469226</v>
+        <v>0.0007121451489239651</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1573902440723316</v>
+        <v>0.226802011602885</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>4.241614961437364</v>
+        <v>5.198638296659396</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.892904297272707</v>
+        <v>13.99376013284666</v>
       </c>
       <c r="C18">
-        <v>2.243199879084273</v>
+        <v>4.789058297090151</v>
       </c>
       <c r="D18">
-        <v>0.7267561782745702</v>
+        <v>0.7960776267159702</v>
       </c>
       <c r="E18">
-        <v>0.2980685955132856</v>
+        <v>0.3622479576538069</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.00266069332635093</v>
+        <v>0.0007183995320205749</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1565208766863293</v>
+        <v>0.2197671406567565</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>4.218087131693181</v>
+        <v>5.10045601373821</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.868846352777382</v>
+        <v>13.8380315373322</v>
       </c>
       <c r="C19">
-        <v>2.234946516096556</v>
+        <v>4.734602906926398</v>
       </c>
       <c r="D19">
-        <v>0.7258891079746945</v>
+        <v>0.7882806482226385</v>
       </c>
       <c r="E19">
-        <v>0.2976353205523665</v>
+        <v>0.3585614898023124</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002661555497407255</v>
+        <v>0.000720500571403743</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.156228458488215</v>
+        <v>0.2174276350392716</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>4.21013139812834</v>
+        <v>5.067695759519211</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.977469765405772</v>
+        <v>14.54891367742346</v>
       </c>
       <c r="C20">
-        <v>2.272208667943346</v>
+        <v>4.983342030729887</v>
       </c>
       <c r="D20">
-        <v>0.7298229042852711</v>
+        <v>0.823931845022031</v>
       </c>
       <c r="E20">
-        <v>0.2995988377604348</v>
+        <v>0.3754176469458557</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002657696629005762</v>
+        <v>0.0007109791917459719</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1575520662979102</v>
+        <v>0.2281251203163492</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>4.245974410738853</v>
+        <v>5.217049610079016</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.348835511029506</v>
+        <v>17.15390316278729</v>
       </c>
       <c r="C21">
-        <v>2.399562564524444</v>
+        <v>5.898384294839389</v>
       </c>
       <c r="D21">
-        <v>0.743603296629999</v>
+        <v>0.9557905801021889</v>
       </c>
       <c r="E21">
-        <v>0.3064389155168428</v>
+        <v>0.4377718311680781</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002645096938412635</v>
+        <v>0.0006774587363706507</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1621355574804824</v>
+        <v>0.2677102076653739</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4.367150937174586</v>
+        <v>5.760002305237208</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.596450200032677</v>
+        <v>19.08389264382561</v>
       </c>
       <c r="C22">
-        <v>2.484452301861097</v>
+        <v>6.580133617960655</v>
       </c>
       <c r="D22">
-        <v>0.7530361759088464</v>
+        <v>1.05462138767615</v>
       </c>
       <c r="E22">
-        <v>0.311093608081876</v>
+        <v>0.4845330337101572</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002637132509443156</v>
+        <v>0.0006538046417707055</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1652348799987493</v>
+        <v>0.2974212071712685</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4.446936571616618</v>
+        <v>6.157658122538407</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.463836130534105</v>
+        <v>18.0274678553518</v>
       </c>
       <c r="C23">
-        <v>2.438990329929652</v>
+        <v>6.206544558023211</v>
       </c>
       <c r="D23">
-        <v>0.7479621981686364</v>
+        <v>1.000409112150606</v>
       </c>
       <c r="E23">
-        <v>0.308592234474574</v>
+        <v>0.4588791958316989</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002641358698740155</v>
+        <v>0.0006666399219613267</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1635710816721314</v>
+        <v>0.2811179659803855</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4.404297457991902</v>
+        <v>5.940491532848853</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.971480915626216</v>
+        <v>14.50918825263409</v>
       </c>
       <c r="C24">
-        <v>2.270154409854058</v>
+        <v>4.969431367548395</v>
       </c>
       <c r="D24">
-        <v>0.7296047762975491</v>
+        <v>0.8219356501155346</v>
       </c>
       <c r="E24">
-        <v>0.2994901049880667</v>
+        <v>0.3744738244396544</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002657907158504068</v>
+        <v>0.0007115066488279431</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1574788724343676</v>
+        <v>0.2275261187213289</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>4.244003345745085</v>
+        <v>5.208716525015916</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.460615802797065</v>
+        <v>11.3236610165992</v>
       </c>
       <c r="C25">
-        <v>2.094841366924925</v>
+        <v>3.857957079840446</v>
       </c>
       <c r="D25">
-        <v>0.7115919104017792</v>
+        <v>0.6634755964639396</v>
       </c>
       <c r="E25">
-        <v>0.2904424652754827</v>
+        <v>0.2995432808574279</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002676932132875486</v>
+        <v>0.0007557705430039719</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1513392525463289</v>
+        <v>0.1799699342730037</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>4.073428694324036</v>
+        <v>4.535586578725685</v>
       </c>
       <c r="O25">
         <v>0</v>
